--- a/xlsx/利益集团_intext.xlsx
+++ b/xlsx/利益集团_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
-  </si>
-  <si>
-    <t>政策_政策_政治學_利益集团</t>
+    <t>社会</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_利益集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>階級</t>
+    <t>阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%84%E7%BB%87_(%E7%A4%BE%E4%BC%9A%E5%AD%A6)</t>
@@ -77,25 +77,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5</t>
   </si>
   <si>
-    <t>勞工</t>
+    <t>劳工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%B0%91</t>
   </si>
   <si>
-    <t>農民</t>
+    <t>农民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%9C%83</t>
   </si>
   <si>
-    <t>商會</t>
+    <t>商会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%83%B3</t>
@@ -107,19 +107,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E4%BF%9D%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>環保組織</t>
+    <t>环保组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E5%A5%B3%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>婦女權益</t>
+    <t>妇女权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B1%E5%8B%A2%E7%A4%BE%E7%BE%A4</t>
   </si>
   <si>
-    <t>弱勢社群</t>
+    <t>弱势社群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E8%AA%AA</t>
   </si>
   <si>
-    <t>遊說</t>
+    <t>游说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>民主國家</t>
+    <t>民主国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E4%BC%A0</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>傳播媒體</t>
+    <t>传播媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%8C%AE%E9%87%91</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E6%9C%83%E9%81%8A%E8%A1%8C</t>
   </si>
   <si>
-    <t>集會遊行</t>
+    <t>集会游行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B3%95%E5%AE%98</t>
@@ -179,25 +179,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%9C%B0%E4%BD%8D</t>
   </si>
   <si>
-    <t>社會地位</t>
+    <t>社会地位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>執政黨</t>
+    <t>执政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>立法機關</t>
+    <t>立法机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96</t>
   </si>
   <si>
-    <t>決策</t>
+    <t>决策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83%E5%8C%96</t>
